--- a/eTactWeb/wwwroot/Uploads/ImportSaleOrderFormat (2) (1) (1).xlsx
+++ b/eTactWeb/wwwroot/Uploads/ImportSaleOrderFormat (2) (1) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D437F42-746A-4AF0-9BC0-7244BB001C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4461BC8E-F38E-42B3-9694-8C093AB10CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="308">
   <si>
     <t>Part Code</t>
   </si>
@@ -509,9 +509,6 @@
   </si>
   <si>
     <t>6711362452</t>
-  </si>
-  <si>
-    <t>6711387188</t>
   </si>
   <si>
     <t>6711362304</t>
@@ -1369,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1461,13 +1458,13 @@
         <v>155</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1496,13 +1493,13 @@
         <v>156</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1531,13 +1528,13 @@
         <v>157</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1566,13 +1563,13 @@
         <v>158</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1601,13 +1598,13 @@
         <v>159</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1636,13 +1633,13 @@
         <v>160</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1671,13 +1668,13 @@
         <v>161</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1706,33 +1703,33 @@
         <v>162</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="1">
-        <v>430.44</v>
+      <c r="C10" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D10" s="1">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2">
         <v>45836</v>
       </c>
       <c r="F10" s="1">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>106</v>
@@ -1741,33 +1738,33 @@
         <v>163</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>283</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>109</v>
+      <c r="C11" s="1">
+        <v>410.7</v>
       </c>
       <c r="D11" s="1">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="E11" s="2">
         <v>45836</v>
       </c>
       <c r="F11" s="1">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>106</v>
@@ -1776,33 +1773,33 @@
         <v>164</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="1">
-        <v>410.7</v>
+      <c r="C12" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D12" s="1">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2">
         <v>45836</v>
       </c>
       <c r="F12" s="1">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>106</v>
@@ -1811,10 +1808,10 @@
         <v>165</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>301</v>
@@ -1822,22 +1819,22 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2">
         <v>45836</v>
       </c>
       <c r="F13" s="1">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>106</v>
@@ -1846,33 +1843,33 @@
         <v>166</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2">
         <v>45836</v>
       </c>
       <c r="F14" s="1">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>106</v>
@@ -1881,33 +1878,33 @@
         <v>167</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2">
         <v>45836</v>
       </c>
       <c r="F15" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>106</v>
@@ -1916,33 +1913,33 @@
         <v>168</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E16" s="2">
         <v>45836</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>106</v>
@@ -1951,33 +1948,33 @@
         <v>169</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17" s="1">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="E17" s="2">
         <v>45836</v>
       </c>
       <c r="F17" s="1">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>106</v>
@@ -1986,33 +1983,33 @@
         <v>170</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>115</v>
+      <c r="C18" s="1">
+        <v>260.66000000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>1900</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2">
         <v>45836</v>
       </c>
       <c r="F18" s="1">
-        <v>1900</v>
+        <v>70</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>106</v>
@@ -2021,33 +2018,33 @@
         <v>171</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="1">
-        <v>260.66000000000003</v>
+      <c r="C19" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2">
         <v>45836</v>
       </c>
       <c r="F19" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>106</v>
@@ -2056,33 +2053,33 @@
         <v>172</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="2">
         <v>45836</v>
       </c>
       <c r="F20" s="1">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>106</v>
@@ -2091,33 +2088,33 @@
         <v>173</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>117</v>
+      <c r="C21" s="1">
+        <v>965.41</v>
       </c>
       <c r="D21" s="1">
-        <v>3000</v>
+        <v>1385</v>
       </c>
       <c r="E21" s="2">
         <v>45836</v>
       </c>
       <c r="F21" s="1">
-        <v>3000</v>
+        <v>1385</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>106</v>
@@ -2129,30 +2126,30 @@
         <v>281</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="1">
-        <v>965.41</v>
+      <c r="C22" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D22" s="1">
-        <v>1385</v>
+        <v>250</v>
       </c>
       <c r="E22" s="2">
         <v>45836</v>
       </c>
       <c r="F22" s="1">
-        <v>1385</v>
+        <v>250</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>106</v>
@@ -2161,33 +2158,33 @@
         <v>175</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>118</v>
+      <c r="C23" s="1">
+        <v>1163.8</v>
       </c>
       <c r="D23" s="1">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="E23" s="2">
         <v>45836</v>
       </c>
       <c r="F23" s="1">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>106</v>
@@ -2199,30 +2196,30 @@
         <v>281</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="1">
-        <v>1163.8</v>
+      <c r="C24" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D24" s="1">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="E24" s="2">
         <v>45836</v>
       </c>
       <c r="F24" s="1">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>106</v>
@@ -2231,33 +2228,33 @@
         <v>177</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D25" s="1">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="E25" s="2">
         <v>45836</v>
       </c>
       <c r="F25" s="1">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>106</v>
@@ -2266,33 +2263,33 @@
         <v>178</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>290</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>120</v>
+      <c r="C26" s="1">
+        <v>176.35</v>
       </c>
       <c r="D26" s="1">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="E26" s="2">
         <v>45836</v>
       </c>
       <c r="F26" s="1">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>106</v>
@@ -2301,33 +2298,33 @@
         <v>179</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C27" s="1">
-        <v>176.35</v>
+        <v>921</v>
       </c>
       <c r="D27" s="1">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="E27" s="2">
         <v>45836</v>
       </c>
       <c r="F27" s="1">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>106</v>
@@ -2339,30 +2336,30 @@
         <v>281</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="1">
-        <v>921</v>
+        <v>624.52</v>
       </c>
       <c r="D28" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E28" s="2">
         <v>45836</v>
       </c>
       <c r="F28" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>106</v>
@@ -2371,33 +2368,33 @@
         <v>181</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C29" s="1">
-        <v>624.52</v>
+        <v>490</v>
       </c>
       <c r="D29" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="2">
         <v>45836</v>
       </c>
       <c r="F29" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>106</v>
@@ -2406,33 +2403,33 @@
         <v>182</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C30" s="1">
-        <v>490</v>
+        <v>913.29</v>
       </c>
       <c r="D30" s="1">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="E30" s="2">
         <v>45836</v>
       </c>
       <c r="F30" s="1">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>106</v>
@@ -2441,33 +2438,33 @@
         <v>183</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="1">
-        <v>913.29</v>
+        <v>511</v>
       </c>
       <c r="D31" s="1">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E31" s="2">
         <v>45836</v>
       </c>
       <c r="F31" s="1">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>106</v>
@@ -2479,21 +2476,21 @@
         <v>281</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="1">
-        <v>511</v>
+        <v>1395.54</v>
       </c>
       <c r="D32" s="1">
         <v>400</v>
@@ -2511,33 +2508,33 @@
         <v>185</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C33" s="1">
-        <v>1395.54</v>
+        <v>197.35</v>
       </c>
       <c r="D33" s="1">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="E33" s="2">
         <v>45836</v>
       </c>
       <c r="F33" s="1">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>106</v>
@@ -2546,33 +2543,33 @@
         <v>186</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="M33" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C34" s="1">
-        <v>197.35</v>
+        <v>568.47</v>
       </c>
       <c r="D34" s="1">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="E34" s="2">
         <v>45836</v>
       </c>
       <c r="F34" s="1">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>106</v>
@@ -2581,33 +2578,33 @@
         <v>187</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="M34" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C35" s="1">
-        <v>568.47</v>
+        <v>251.27</v>
       </c>
       <c r="D35" s="1">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="E35" s="2">
         <v>45836</v>
       </c>
       <c r="F35" s="1">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>106</v>
@@ -2616,33 +2613,33 @@
         <v>188</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>283</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C36" s="1">
-        <v>251.27</v>
+        <v>349.36</v>
       </c>
       <c r="D36" s="1">
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="E36" s="2">
         <v>45836</v>
       </c>
       <c r="F36" s="1">
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>106</v>
@@ -2651,33 +2648,33 @@
         <v>189</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>284</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="1">
-        <v>349.36</v>
+      <c r="C37" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="D37" s="1">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E37" s="2">
         <v>45836</v>
       </c>
       <c r="F37" s="1">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>106</v>
@@ -2686,10 +2683,10 @@
         <v>190</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>303</v>
@@ -2702,8 +2699,8 @@
       <c r="B38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>121</v>
+      <c r="C38" s="1">
+        <v>2237</v>
       </c>
       <c r="D38" s="1">
         <v>200</v>
@@ -2724,30 +2721,30 @@
         <v>281</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C39" s="1">
-        <v>2237</v>
+        <v>548.73</v>
       </c>
       <c r="D39" s="1">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E39" s="2">
         <v>45836</v>
       </c>
       <c r="F39" s="1">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>106</v>
@@ -2756,33 +2753,33 @@
         <v>192</v>
       </c>
       <c r="K39" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="M39" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C40" s="1">
-        <v>548.73</v>
+        <v>645.52</v>
       </c>
       <c r="D40" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E40" s="2">
         <v>45836</v>
       </c>
       <c r="F40" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>106</v>
@@ -2794,30 +2791,30 @@
         <v>281</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C41" s="1">
-        <v>645.52</v>
+        <v>320.36</v>
       </c>
       <c r="D41" s="1">
-        <v>500</v>
+        <v>920</v>
       </c>
       <c r="E41" s="2">
         <v>45836</v>
       </c>
       <c r="F41" s="1">
-        <v>500</v>
+        <v>920</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>106</v>
@@ -2826,33 +2823,33 @@
         <v>194</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="M41" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C42" s="1">
-        <v>320.36</v>
+        <v>576</v>
       </c>
       <c r="D42" s="1">
-        <v>920</v>
+        <v>400</v>
       </c>
       <c r="E42" s="2">
         <v>45836</v>
       </c>
       <c r="F42" s="1">
-        <v>920</v>
+        <v>400</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>106</v>
@@ -2864,30 +2861,30 @@
         <v>281</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="1">
-        <v>576</v>
+      <c r="C43" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D43" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E43" s="2">
         <v>45836</v>
       </c>
       <c r="F43" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>106</v>
@@ -2896,33 +2893,33 @@
         <v>196</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D44" s="1">
-        <v>700</v>
+        <v>290</v>
       </c>
       <c r="E44" s="2">
         <v>45836</v>
       </c>
       <c r="F44" s="1">
-        <v>700</v>
+        <v>290</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>106</v>
@@ -2931,33 +2928,33 @@
         <v>197</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="E45" s="2">
         <v>45836</v>
       </c>
       <c r="F45" s="1">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>106</v>
@@ -2966,10 +2963,10 @@
         <v>198</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>297</v>
@@ -2977,22 +2974,22 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>124</v>
+      <c r="C46" s="1">
+        <v>335.01</v>
       </c>
       <c r="D46" s="1">
-        <v>500</v>
+        <v>920</v>
       </c>
       <c r="E46" s="2">
         <v>45836</v>
       </c>
       <c r="F46" s="1">
-        <v>500</v>
+        <v>920</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>106</v>
@@ -3001,33 +2998,33 @@
         <v>199</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="1">
-        <v>335.01</v>
+        <v>379</v>
       </c>
       <c r="D47" s="1">
-        <v>920</v>
+        <v>640</v>
       </c>
       <c r="E47" s="2">
         <v>45836</v>
       </c>
       <c r="F47" s="1">
-        <v>920</v>
+        <v>640</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>106</v>
@@ -3039,10 +3036,10 @@
         <v>281</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3053,7 +3050,7 @@
         <v>106</v>
       </c>
       <c r="C48" s="1">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="D48" s="1">
         <v>640</v>
@@ -3071,33 +3068,33 @@
         <v>201</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C49" s="1">
-        <v>358</v>
+        <v>555</v>
       </c>
       <c r="D49" s="1">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="E49" s="2">
         <v>45836</v>
       </c>
       <c r="F49" s="1">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>106</v>
@@ -3106,33 +3103,33 @@
         <v>202</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C50" s="1">
-        <v>555</v>
+        <v>183.69</v>
       </c>
       <c r="D50" s="1">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="E50" s="2">
         <v>45836</v>
       </c>
       <c r="F50" s="1">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>106</v>
@@ -3144,30 +3141,30 @@
         <v>281</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C51" s="1">
-        <v>183.69</v>
+        <v>524.59</v>
       </c>
       <c r="D51" s="1">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="E51" s="2">
         <v>45836</v>
       </c>
       <c r="F51" s="1">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>106</v>
@@ -3176,7 +3173,7 @@
         <v>204</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>283</v>
@@ -3187,22 +3184,22 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C52" s="1">
-        <v>524.59</v>
+        <v>271</v>
       </c>
       <c r="D52" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E52" s="2">
         <v>45836</v>
       </c>
       <c r="F52" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>106</v>
@@ -3211,13 +3208,13 @@
         <v>205</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>284</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3228,7 +3225,7 @@
         <v>106</v>
       </c>
       <c r="C53" s="1">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D53" s="1">
         <v>600</v>
@@ -3246,33 +3243,33 @@
         <v>206</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C54" s="1">
-        <v>250</v>
+        <v>440.03</v>
       </c>
       <c r="D54" s="1">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="E54" s="2">
         <v>45836</v>
       </c>
       <c r="F54" s="1">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>106</v>
@@ -3281,33 +3278,33 @@
         <v>207</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C55" s="1">
-        <v>440.03</v>
+        <v>279.27</v>
       </c>
       <c r="D55" s="1">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="E55" s="2">
         <v>45836</v>
       </c>
       <c r="F55" s="1">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>106</v>
@@ -3319,30 +3316,30 @@
         <v>281</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C56" s="1">
-        <v>279.27</v>
+        <v>197</v>
       </c>
       <c r="D56" s="1">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E56" s="2">
         <v>45836</v>
       </c>
       <c r="F56" s="1">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>106</v>
@@ -3351,10 +3348,10 @@
         <v>209</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>300</v>
@@ -3368,7 +3365,7 @@
         <v>106</v>
       </c>
       <c r="C57" s="1">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D57" s="1">
         <v>700</v>
@@ -3386,33 +3383,33 @@
         <v>210</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C58" s="1">
-        <v>176</v>
+        <v>773.06</v>
       </c>
       <c r="D58" s="1">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E58" s="2">
         <v>45836</v>
       </c>
       <c r="F58" s="1">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>106</v>
@@ -3424,10 +3421,10 @@
         <v>281</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3437,17 +3434,17 @@
       <c r="B59" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="1">
-        <v>773.06</v>
+      <c r="C59" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D59" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2">
         <v>45836</v>
       </c>
       <c r="F59" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>106</v>
@@ -3456,33 +3453,33 @@
         <v>212</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>125</v>
+      <c r="C60" s="1">
+        <v>1011.5</v>
       </c>
       <c r="D60" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E60" s="2">
         <v>45836</v>
       </c>
       <c r="F60" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>106</v>
@@ -3491,33 +3488,33 @@
         <v>213</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C61" s="1">
-        <v>1011.5</v>
+        <v>310</v>
       </c>
       <c r="D61" s="1">
-        <v>130</v>
+        <v>437</v>
       </c>
       <c r="E61" s="2">
         <v>45836</v>
       </c>
       <c r="F61" s="1">
-        <v>130</v>
+        <v>437</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>106</v>
@@ -3526,33 +3523,33 @@
         <v>214</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>291</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="1">
-        <v>310</v>
+      <c r="C62" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D62" s="1">
-        <v>437</v>
+        <v>290</v>
       </c>
       <c r="E62" s="2">
         <v>45836</v>
       </c>
       <c r="F62" s="1">
-        <v>437</v>
+        <v>290</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>106</v>
@@ -3561,24 +3558,24 @@
         <v>215</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D63" s="1">
         <v>290</v>
@@ -3596,33 +3593,33 @@
         <v>216</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>127</v>
+      <c r="C64" s="1">
+        <v>164.18</v>
       </c>
       <c r="D64" s="1">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="E64" s="2">
         <v>45836</v>
       </c>
       <c r="F64" s="1">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>106</v>
@@ -3631,33 +3628,33 @@
         <v>217</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C65" s="1">
-        <v>164.18</v>
+        <v>240</v>
       </c>
       <c r="D65" s="1">
-        <v>355</v>
+        <v>500</v>
       </c>
       <c r="E65" s="2">
         <v>45836</v>
       </c>
       <c r="F65" s="1">
-        <v>355</v>
+        <v>500</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>106</v>
@@ -3666,33 +3663,33 @@
         <v>218</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="1">
-        <v>240</v>
+      <c r="C66" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D66" s="1">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="E66" s="2">
         <v>45836</v>
       </c>
       <c r="F66" s="1">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>106</v>
@@ -3701,33 +3698,33 @@
         <v>219</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>128</v>
+      <c r="C67" s="1">
+        <v>627.01</v>
       </c>
       <c r="D67" s="1">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2">
         <v>45836</v>
       </c>
       <c r="F67" s="1">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>106</v>
@@ -3736,10 +3733,10 @@
         <v>220</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>304</v>
@@ -3747,22 +3744,22 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C68" s="1">
-        <v>627.01</v>
+        <v>224.52</v>
       </c>
       <c r="D68" s="1">
-        <v>130</v>
+        <v>437</v>
       </c>
       <c r="E68" s="2">
         <v>45836</v>
       </c>
       <c r="F68" s="1">
-        <v>130</v>
+        <v>437</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>106</v>
@@ -3771,33 +3768,33 @@
         <v>221</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>291</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C69" s="1">
-        <v>224.52</v>
+        <v>405.36</v>
       </c>
       <c r="D69" s="1">
-        <v>437</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2">
         <v>45836</v>
       </c>
       <c r="F69" s="1">
-        <v>437</v>
+        <v>100</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>106</v>
@@ -3809,30 +3806,30 @@
         <v>281</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C70" s="1">
-        <v>405.36</v>
+        <v>320.36</v>
       </c>
       <c r="D70" s="1">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="E70" s="2">
         <v>45836</v>
       </c>
       <c r="F70" s="1">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>106</v>
@@ -3841,33 +3838,33 @@
         <v>223</v>
       </c>
       <c r="K70" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="M70" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="1">
-        <v>320.36</v>
+      <c r="C71" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D71" s="1">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2">
         <v>45836</v>
       </c>
       <c r="F71" s="1">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>106</v>
@@ -3876,33 +3873,33 @@
         <v>224</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D72" s="1">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="E72" s="2">
         <v>45836</v>
       </c>
       <c r="F72" s="1">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>106</v>
@@ -3911,33 +3908,33 @@
         <v>225</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>130</v>
+      <c r="C73" s="1">
+        <v>571</v>
       </c>
       <c r="D73" s="1">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E73" s="2">
         <v>45836</v>
       </c>
       <c r="F73" s="1">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>106</v>
@@ -3952,27 +3949,27 @@
         <v>291</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C74" s="1">
-        <v>571</v>
+        <v>507.28</v>
       </c>
       <c r="D74" s="1">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2">
         <v>45836</v>
       </c>
       <c r="F74" s="1">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>106</v>
@@ -3981,24 +3978,24 @@
         <v>227</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="1">
-        <v>507.28</v>
+      <c r="C75" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D75" s="1">
         <v>130</v>
@@ -4016,33 +4013,33 @@
         <v>228</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D76" s="1">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E76" s="2">
         <v>45836</v>
       </c>
       <c r="F76" s="1">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>106</v>
@@ -4051,33 +4048,33 @@
         <v>229</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>132</v>
+      <c r="C77" s="1">
+        <v>386.25</v>
       </c>
       <c r="D77" s="1">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E77" s="2">
         <v>45836</v>
       </c>
       <c r="F77" s="1">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>106</v>
@@ -4086,24 +4083,24 @@
         <v>230</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="1">
-        <v>386.25</v>
+      <c r="C78" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="D78" s="1">
         <v>150</v>
@@ -4121,33 +4118,33 @@
         <v>231</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D79" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2">
         <v>45836</v>
       </c>
       <c r="F79" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>106</v>
@@ -4156,10 +4153,10 @@
         <v>232</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>297</v>
@@ -4172,17 +4169,17 @@
       <c r="B80" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>134</v>
+      <c r="C80" s="1">
+        <v>440</v>
       </c>
       <c r="D80" s="1">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E80" s="2">
         <v>45836</v>
       </c>
       <c r="F80" s="1">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>106</v>
@@ -4194,21 +4191,21 @@
         <v>281</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="1">
-        <v>440</v>
+      <c r="C81" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="D81" s="1">
         <v>60</v>
@@ -4226,33 +4223,33 @@
         <v>234</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>135</v>
+      <c r="C82" s="1">
+        <v>333.12</v>
       </c>
       <c r="D82" s="1">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2">
         <v>45836</v>
       </c>
       <c r="F82" s="1">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>106</v>
@@ -4261,24 +4258,24 @@
         <v>235</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C83" s="1">
-        <v>333.12</v>
+        <v>332.33</v>
       </c>
       <c r="D83" s="1">
         <v>130</v>
@@ -4296,24 +4293,24 @@
         <v>236</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C84" s="1">
-        <v>332.33</v>
+        <v>290.86</v>
       </c>
       <c r="D84" s="1">
         <v>130</v>
@@ -4331,33 +4328,33 @@
         <v>237</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C85" s="1">
-        <v>290.86</v>
+      <c r="C85" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D85" s="1">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="E85" s="2">
         <v>45836</v>
       </c>
       <c r="F85" s="1">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>106</v>
@@ -4366,33 +4363,33 @@
         <v>238</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>136</v>
+      <c r="C86" s="1">
+        <v>234.52</v>
       </c>
       <c r="D86" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2">
         <v>45836</v>
       </c>
       <c r="F86" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>106</v>
@@ -4404,30 +4401,30 @@
         <v>281</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C87" s="1">
-        <v>234.52</v>
+        <v>182.55</v>
       </c>
       <c r="D87" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E87" s="2">
         <v>45836</v>
       </c>
       <c r="F87" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>106</v>
@@ -4436,33 +4433,33 @@
         <v>240</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>283</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C88" s="1">
-        <v>182.55</v>
+      <c r="C88" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D88" s="1">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2">
         <v>45836</v>
       </c>
       <c r="F88" s="1">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>106</v>
@@ -4471,33 +4468,33 @@
         <v>241</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>137</v>
+      <c r="C89" s="1">
+        <v>282.83999999999997</v>
       </c>
       <c r="D89" s="1">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E89" s="2">
         <v>45836</v>
       </c>
       <c r="F89" s="1">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>106</v>
@@ -4506,13 +4503,13 @@
         <v>242</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4523,7 +4520,7 @@
         <v>106</v>
       </c>
       <c r="C90" s="1">
-        <v>282.83999999999997</v>
+        <v>302.35000000000002</v>
       </c>
       <c r="D90" s="1">
         <v>65</v>
@@ -4544,30 +4541,30 @@
         <v>281</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C91" s="1">
-        <v>302.35000000000002</v>
+      <c r="C91" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D91" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E91" s="2">
         <v>45836</v>
       </c>
       <c r="F91" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>106</v>
@@ -4576,33 +4573,33 @@
         <v>244</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>138</v>
+      <c r="C92" s="1">
+        <v>750</v>
       </c>
       <c r="D92" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E92" s="2">
         <v>45836</v>
       </c>
       <c r="F92" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>106</v>
@@ -4611,33 +4608,33 @@
         <v>245</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>286</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="1">
-        <v>750</v>
+      <c r="C93" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D93" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E93" s="2">
         <v>45836</v>
       </c>
       <c r="F93" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>106</v>
@@ -4646,33 +4643,33 @@
         <v>246</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>139</v>
+      <c r="C94" s="1">
+        <v>215.01</v>
       </c>
       <c r="D94" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2">
         <v>45836</v>
       </c>
       <c r="F94" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>106</v>
@@ -4681,33 +4678,33 @@
         <v>247</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C95" s="1">
-        <v>215.01</v>
+      <c r="C95" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D95" s="1">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E95" s="2">
         <v>45836</v>
       </c>
       <c r="F95" s="1">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>106</v>
@@ -4716,13 +4713,13 @@
         <v>248</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4732,8 +4729,8 @@
       <c r="B96" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>140</v>
+      <c r="C96" s="1">
+        <v>596.91</v>
       </c>
       <c r="D96" s="1">
         <v>35</v>
@@ -4754,30 +4751,30 @@
         <v>281</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C97" s="1">
-        <v>596.91</v>
+      <c r="C97" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="D97" s="1">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2">
         <v>45836</v>
       </c>
       <c r="F97" s="1">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>106</v>
@@ -4786,33 +4783,33 @@
         <v>250</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>141</v>
+      <c r="C98" s="1">
+        <v>816.91</v>
       </c>
       <c r="D98" s="1">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="E98" s="2">
         <v>45836</v>
       </c>
       <c r="F98" s="1">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>106</v>
@@ -4824,7 +4821,7 @@
         <v>281</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M98" s="3" t="s">
         <v>297</v>
@@ -4832,22 +4829,22 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="1">
-        <v>816.91</v>
+      <c r="C99" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D99" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E99" s="2">
         <v>45836</v>
       </c>
       <c r="F99" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>106</v>
@@ -4856,33 +4853,33 @@
         <v>252</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>142</v>
+      <c r="C100" s="1">
+        <v>559.79999999999995</v>
       </c>
       <c r="D100" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E100" s="2">
         <v>45836</v>
       </c>
       <c r="F100" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>106</v>
@@ -4894,30 +4891,30 @@
         <v>281</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="1">
-        <v>559.79999999999995</v>
+      <c r="C101" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D101" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E101" s="2">
         <v>45836</v>
       </c>
       <c r="F101" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>106</v>
@@ -4926,33 +4923,33 @@
         <v>254</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D102" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E102" s="2">
         <v>45836</v>
       </c>
       <c r="F102" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>106</v>
@@ -4961,33 +4958,33 @@
         <v>255</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>286</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>144</v>
+      <c r="C103" s="1">
+        <v>125.02</v>
       </c>
       <c r="D103" s="1">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="E103" s="2">
         <v>45836</v>
       </c>
       <c r="F103" s="1">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>106</v>
@@ -5002,27 +4999,27 @@
         <v>287</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="1">
-        <v>125.02</v>
+      <c r="C104" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="D104" s="1">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="E104" s="2">
         <v>45836</v>
       </c>
       <c r="F104" s="1">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>106</v>
@@ -5031,33 +5028,33 @@
         <v>257</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D105" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E105" s="2">
         <v>45836</v>
       </c>
       <c r="F105" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>106</v>
@@ -5066,33 +5063,33 @@
         <v>258</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>146</v>
+      <c r="C106" s="1">
+        <v>488.22</v>
       </c>
       <c r="D106" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E106" s="2">
         <v>45836</v>
       </c>
       <c r="F106" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>106</v>
@@ -5104,21 +5101,21 @@
         <v>281</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="1">
-        <v>488.22</v>
+      <c r="C107" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D107" s="1">
         <v>25</v>
@@ -5136,13 +5133,13 @@
         <v>260</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5152,8 +5149,8 @@
       <c r="B108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>147</v>
+      <c r="C108" s="1">
+        <v>433.32</v>
       </c>
       <c r="D108" s="1">
         <v>25</v>
@@ -5174,30 +5171,30 @@
         <v>281</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C109" s="1">
-        <v>433.32</v>
+        <v>513</v>
       </c>
       <c r="D109" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E109" s="2">
         <v>45836</v>
       </c>
       <c r="F109" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>106</v>
@@ -5206,24 +5203,24 @@
         <v>262</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C110" s="1">
-        <v>513</v>
+        <v>340</v>
       </c>
       <c r="D110" s="1">
         <v>30</v>
@@ -5241,33 +5238,33 @@
         <v>263</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C111" s="1">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="D111" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E111" s="2">
         <v>45836</v>
       </c>
       <c r="F111" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>106</v>
@@ -5279,10 +5276,10 @@
         <v>281</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5293,7 +5290,7 @@
         <v>106</v>
       </c>
       <c r="C112" s="1">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D112" s="1">
         <v>60</v>
@@ -5311,33 +5308,33 @@
         <v>265</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C113" s="1">
-        <v>222</v>
+        <v>479.69</v>
       </c>
       <c r="D113" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E113" s="2">
         <v>45836</v>
       </c>
       <c r="F113" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>106</v>
@@ -5349,21 +5346,21 @@
         <v>281</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="1">
-        <v>479.69</v>
+      <c r="C114" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="D114" s="1">
         <v>30</v>
@@ -5381,33 +5378,33 @@
         <v>267</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D115" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E115" s="2">
         <v>45836</v>
       </c>
       <c r="F115" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>106</v>
@@ -5416,13 +5413,13 @@
         <v>268</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5432,8 +5429,8 @@
       <c r="B116" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>149</v>
+      <c r="C116" s="1">
+        <v>460.15</v>
       </c>
       <c r="D116" s="1">
         <v>20</v>
@@ -5454,21 +5451,21 @@
         <v>281</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C117" s="1">
-        <v>460.15</v>
+      <c r="C117" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D117" s="1">
         <v>20</v>
@@ -5486,24 +5483,24 @@
         <v>270</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D118" s="1">
         <v>20</v>
@@ -5521,13 +5518,13 @@
         <v>271</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5537,8 +5534,8 @@
       <c r="B119" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>151</v>
+      <c r="C119" s="1">
+        <v>339.31</v>
       </c>
       <c r="D119" s="1">
         <v>20</v>
@@ -5559,30 +5556,30 @@
         <v>281</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C120" s="1">
-        <v>339.31</v>
+        <v>649.07000000000005</v>
       </c>
       <c r="D120" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E120" s="2">
         <v>45836</v>
       </c>
       <c r="F120" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>106</v>
@@ -5591,33 +5588,33 @@
         <v>273</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C121" s="1">
-        <v>649.07000000000005</v>
+        <v>213.96</v>
       </c>
       <c r="D121" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E121" s="2">
         <v>45836</v>
       </c>
       <c r="F121" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>106</v>
@@ -5629,30 +5626,30 @@
         <v>281</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C122" s="1">
-        <v>213.96</v>
+      <c r="C122" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D122" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E122" s="2">
         <v>45836</v>
       </c>
       <c r="F122" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>106</v>
@@ -5661,24 +5658,24 @@
         <v>275</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>152</v>
+      <c r="C123" s="1">
+        <v>230.33</v>
       </c>
       <c r="D123" s="1">
         <v>10</v>
@@ -5696,24 +5693,24 @@
         <v>276</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C124" s="1">
-        <v>230.33</v>
+      <c r="C124" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D124" s="1">
         <v>10</v>
@@ -5731,24 +5728,24 @@
         <v>277</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D125" s="1">
         <v>10</v>
@@ -5766,33 +5763,33 @@
         <v>278</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>154</v>
+      <c r="C126" s="1">
+        <v>407.25</v>
       </c>
       <c r="D126" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E126" s="2">
         <v>45836</v>
       </c>
       <c r="F126" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>106</v>
@@ -5804,45 +5801,10 @@
         <v>281</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="A127" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C127" s="1">
-        <v>407.25</v>
-      </c>
-      <c r="D127" s="1">
-        <v>2</v>
-      </c>
-      <c r="E127" s="2">
-        <v>45836</v>
-      </c>
-      <c r="F127" s="1">
-        <v>2</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="M127" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
